--- a/车模/签到表.xlsx
+++ b/车模/签到表.xlsx
@@ -223,9 +223,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -287,6 +287,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -346,18 +354,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,22 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -523,18 +523,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -548,24 +566,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,6 +667,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -700,21 +715,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -724,7 +724,7 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,13 +736,13 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,73 +751,73 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,10 +832,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,22 +844,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,10 +1210,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
@@ -2021,7 +2021,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>55</v>
@@ -2036,7 +2036,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>55</v>
@@ -2051,7 +2051,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>55</v>
@@ -2066,7 +2066,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -2081,7 +2081,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
@@ -2096,7 +2096,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>55</v>
@@ -2111,7 +2111,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>55</v>
@@ -2121,24 +2121,9 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A60" s="6">
-        <v>59</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.393055555555556" right="0.393055555555556" top="0.865972222222222" bottom="0.393055555555556" header="0.393055555555556" footer="0.118055555555556"/>
+  <pageMargins left="0.393055555555556" right="0.393055555555556" top="0.865277777777778" bottom="0.393055555555556" header="0.393055555555556" footer="0.118055555555556"/>
   <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="portrait" horizontalDpi="600"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"微软雅黑"&amp;16&amp;B 2016年昆山市第三届中小学生车辆模型比赛签到表</oddHeader>
